--- a/data/FLP/NPV.xlsx
+++ b/data/FLP/NPV.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\PycharmProjects\pythonProject2\CLCO\data\FLP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB6A723-B39A-41E4-9473-66FF9ED3E3A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0CF364-42A3-4534-9717-D2AD5D2EA3B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="945" yWindow="-98" windowWidth="27953" windowHeight="16395" xr2:uid="{00E4EE28-D364-48B4-A2D7-BE506295CD54}"/>
+    <workbookView xWindow="952" yWindow="-98" windowWidth="27946" windowHeight="16395" xr2:uid="{00E4EE28-D364-48B4-A2D7-BE506295CD54}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="175" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -82,7 +82,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -115,36 +115,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Estimated</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Transport Costs and CAPEX</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -182,13 +152,10 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>1 Facility</c:v>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:lumMod val="75000"/>
+              <a:schemeClr val="accent1">
+                <a:alpha val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln>
@@ -197,92 +164,101 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$J$3:$J$9</c:f>
+              <c:f>Sheet1!$C$15:$C$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>400</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>350</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>250</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>200</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>150</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100</c:v>
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="7"/>
-              <c:pt idx="0">
-                <c:v>1</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>1</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>1</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>1</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>1</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>1</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>1</c:v>
-              </c:pt>
-            </c:numLit>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:yVal>
           <c:bubbleSize>
             <c:numRef>
-              <c:f>Sheet1!$K$3:$K$9</c:f>
+              <c:f>Sheet1!$C$3:$C$10</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>24.402681047414102</c:v>
+                  <c:v>23951053</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.9924068552195</c:v>
+                  <c:v>24557903</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26.366040952256299</c:v>
+                  <c:v>25914413</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50.430937188346697</c:v>
+                  <c:v>44402639</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>163.62945663031701</c:v>
+                  <c:v>153858066</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>234.242758876978</c:v>
+                  <c:v>220127658</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>317.28177499999998</c:v>
+                  <c:v>304121533</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>388128348</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -290,20 +266,17 @@
           <c:bubble3D val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-9A2F-4220-82BA-356ECEE9428B}"/>
+              <c16:uniqueId val="{00000000-7031-4D99-B620-36C0F03BD689}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>2 Facility</c:v>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent2">
-                <a:lumMod val="75000"/>
+                <a:alpha val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln w="25400">
@@ -312,92 +285,101 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$J$3:$J$9</c:f>
+              <c:f>Sheet1!$D$15:$D$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>400</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>350</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>250</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>200</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>150</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="7"/>
-              <c:pt idx="0">
-                <c:v>2</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>2</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>2</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>2</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>2</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>2</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>2</c:v>
-              </c:pt>
-            </c:numLit>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:yVal>
           <c:bubbleSize>
             <c:numRef>
-              <c:f>Sheet1!$L$3:$L$9</c:f>
+              <c:f>Sheet1!$D$3:$D$10</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>24.798756532282201</c:v>
+                  <c:v>24215293</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.313404478782697</c:v>
+                  <c:v>24442952</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.2868787499423</c:v>
+                  <c:v>24442952</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.001919286783899</c:v>
+                  <c:v>25297690</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28.8884825311989</c:v>
+                  <c:v>27472909</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>112.28737393325301</c:v>
+                  <c:v>108900795</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>203.95717200000001</c:v>
+                  <c:v>195316281</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>299491919</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -405,20 +387,17 @@
           <c:bubble3D val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-9A2F-4220-82BA-356ECEE9428B}"/>
+              <c16:uniqueId val="{00000001-7031-4D99-B620-36C0F03BD689}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
-          <c:tx>
-            <c:v>3 Facility</c:v>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:lumMod val="75000"/>
+              <a:schemeClr val="accent3">
+                <a:alpha val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln w="25400">
@@ -427,92 +406,101 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$J$3:$J$9</c:f>
+              <c:f>Sheet1!$E$15:$E$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>400</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>350</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>250</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>200</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>150</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100</c:v>
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="7"/>
-              <c:pt idx="0">
-                <c:v>3</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>3</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>3</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>3</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>3</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>3</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>3</c:v>
-              </c:pt>
-            </c:numLit>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:yVal>
           <c:bubbleSize>
             <c:numRef>
-              <c:f>Sheet1!$M$3:$M$9</c:f>
+              <c:f>Sheet1!$E$3:$E$10</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>25.484716042164898</c:v>
+                  <c:v>24603984</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.422822585446202</c:v>
+                  <c:v>24603984</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.5147107086337</c:v>
+                  <c:v>24603984</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.961579325001999</c:v>
+                  <c:v>24603984</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25.904649110731899</c:v>
+                  <c:v>24968603</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27.249319459065703</c:v>
+                  <c:v>25518056</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>115.37038800000001</c:v>
+                  <c:v>129221557</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>213039478</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -520,20 +508,17 @@
           <c:bubble3D val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-9A2F-4220-82BA-356ECEE9428B}"/>
+              <c16:uniqueId val="{00000002-7031-4D99-B620-36C0F03BD689}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
-          <c:tx>
-            <c:v>4 Facility</c:v>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="75000"/>
+              <a:schemeClr val="accent4">
+                <a:alpha val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln w="25400">
@@ -542,92 +527,101 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$J$3:$J$9</c:f>
+              <c:f>Sheet1!$F$15:$F$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>400</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>350</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>250</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>200</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>150</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100</c:v>
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="7"/>
-              <c:pt idx="0">
-                <c:v>4</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>4</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>4</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>4</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>4</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>4</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>4</c:v>
-              </c:pt>
-            </c:numLit>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:yVal>
           <c:bubbleSize>
             <c:numRef>
-              <c:f>Sheet1!$N$3:$N$9</c:f>
+              <c:f>Sheet1!$F$3:$F$10</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>26.4171725618266</c:v>
+                  <c:v>25088411</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.646070856982202</c:v>
+                  <c:v>25162437</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26.439509945558399</c:v>
+                  <c:v>25088411</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.569499357271198</c:v>
+                  <c:v>25088411</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26.660796778798499</c:v>
+                  <c:v>25351430</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27.549087887032201</c:v>
+                  <c:v>25797463</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.763092999999998</c:v>
+                  <c:v>29482772</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>131870174</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -635,20 +629,17 @@
           <c:bubble3D val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-9A2F-4220-82BA-356ECEE9428B}"/>
+              <c16:uniqueId val="{00000003-7031-4D99-B620-36C0F03BD689}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
-          <c:tx>
-            <c:v>5 Facility</c:v>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent5">
-                <a:lumMod val="75000"/>
+                <a:alpha val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln w="25400">
@@ -657,92 +648,101 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$J$3:$J$9</c:f>
+              <c:f>Sheet1!$G$15:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>400</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>350</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>250</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>200</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>150</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100</c:v>
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="7"/>
-              <c:pt idx="0">
-                <c:v>5</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>5</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>5</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>5</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>5</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>5</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>5</c:v>
-              </c:pt>
-            </c:numLit>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:yVal>
           <c:bubbleSize>
             <c:numRef>
-              <c:f>Sheet1!$O$3:$O$9</c:f>
+              <c:f>Sheet1!$G$3:$G$10</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>27.3360125034731</c:v>
+                  <c:v>25502392</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.205192468325599</c:v>
+                  <c:v>25528333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.4450796253895</c:v>
+                  <c:v>25528911</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27.3660419973254</c:v>
+                  <c:v>25577866</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27.475157290523498</c:v>
+                  <c:v>25880531</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28.353391704867899</c:v>
+                  <c:v>25993955</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31.422491000000001</c:v>
+                  <c:v>29351247</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>66654244</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -750,20 +750,17 @@
           <c:bubble3D val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-9A2F-4220-82BA-356ECEE9428B}"/>
+              <c16:uniqueId val="{00000004-7031-4D99-B620-36C0F03BD689}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
           <c:order val="5"/>
-          <c:tx>
-            <c:v>6 Facility</c:v>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="75000"/>
+              <a:schemeClr val="accent6">
+                <a:alpha val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln w="25400">
@@ -772,92 +769,101 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$J$3:$J$9</c:f>
+              <c:f>Sheet1!$H$15:$H$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>400</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>350</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>250</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>200</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>150</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100</c:v>
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="7"/>
-              <c:pt idx="0">
-                <c:v>6</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>6</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>6</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>6</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>6</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>6</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>6</c:v>
-              </c:pt>
-            </c:numLit>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:yVal>
           <c:bubbleSize>
             <c:numRef>
-              <c:f>Sheet1!$P$3:$P$9</c:f>
+              <c:f>Sheet1!$H$3:$H$10</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>28.394517540822701</c:v>
+                  <c:v>26068458</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.176576875670801</c:v>
+                  <c:v>26153587</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.530039092455699</c:v>
+                  <c:v>26081236</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28.5879092395067</c:v>
+                  <c:v>26139337</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28.407951974018001</c:v>
+                  <c:v>26475583</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28.757534134201602</c:v>
+                  <c:v>26656400</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31.06738</c:v>
+                  <c:v>29488705</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42583430</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -865,95 +871,46 @@
           <c:bubble3D val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-9A2F-4220-82BA-356ECEE9428B}"/>
+              <c16:uniqueId val="{00000005-7031-4D99-B620-36C0F03BD689}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:bubbleScale val="70"/>
+        <c:bubbleScale val="100"/>
         <c:showNegBubbles val="0"/>
-        <c:axId val="468194192"/>
-        <c:axId val="468197936"/>
+        <c:axId val="962373775"/>
+        <c:axId val="962390095"/>
       </c:bubbleChart>
       <c:valAx>
-        <c:axId val="468194192"/>
+        <c:axId val="962373775"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="425"/>
-          <c:min val="75"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>Maximum</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
-                  <a:t> Un-Penalized Transportation Distance</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" sz="1400"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
+        <c:majorGridlines>
           <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="in"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -974,7 +931,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -989,81 +946,35 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468197936"/>
+        <c:crossAx val="962390095"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="468197936"/>
+        <c:axId val="962390095"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="6.5"/>
-          <c:min val="0"/>
+          <c:max val="500"/>
+          <c:min val="50"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>Number of</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
-                  <a:t> Facilities</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" sz="1400"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
+        <c:majorGridlines>
           <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="in"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1084,7 +995,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1099,18 +1010,49 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468194192"/>
+        <c:crossAx val="962373775"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln w="25400">
+        <a:ln>
           <a:noFill/>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1734,16 +1676,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>201124</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>74735</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>330113</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>56496</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>734524</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>103310</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>967392</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>75829</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1758,33 +1700,12 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4809759" y="2408360"/>
-          <a:ext cx="4574198" cy="2721219"/>
-          <a:chOff x="4795105" y="2455985"/>
-          <a:chExt cx="4563207" cy="2776171"/>
+          <a:off x="5634805" y="2749141"/>
+          <a:ext cx="2981895" cy="1455410"/>
+          <a:chOff x="5570658" y="2803647"/>
+          <a:chExt cx="2974730" cy="1484800"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:graphicFrame macro="">
-        <xdr:nvGraphicFramePr>
-          <xdr:cNvPr id="3" name="Chart 2">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E530081-22D1-2290-189F-01CCD3F4F80D}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGraphicFramePr/>
-        </xdr:nvGraphicFramePr>
-        <xdr:xfrm>
-          <a:off x="4795105" y="2455985"/>
-          <a:ext cx="4563207" cy="2776171"/>
-        </xdr:xfrm>
-        <a:graphic>
-          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-          </a:graphicData>
-        </a:graphic>
-      </xdr:graphicFrame>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
           <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
@@ -1881,6 +1802,42 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>470754</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>18683</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>602638</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>69238</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6026A5B8-7B26-2388-A16A-7E730DD17092}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2183,14 +2140,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{971828E5-F2BA-4E54-9AA6-C2B2E40636D7}">
-  <dimension ref="B1:P9"/>
+  <dimension ref="B1:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
+    <col min="4" max="4" width="9.73046875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.06640625" bestFit="1" customWidth="1"/>
     <col min="11" max="16" width="14.6640625" customWidth="1"/>
   </cols>
@@ -2249,352 +2207,535 @@
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B3">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="C3">
-        <v>24402681.047414102</v>
+        <v>23951053</v>
       </c>
       <c r="D3">
-        <v>24798756.5322822</v>
+        <v>24215293</v>
       </c>
       <c r="E3">
-        <v>25484716.042164899</v>
+        <v>24603984</v>
       </c>
       <c r="F3">
-        <v>26417172.561826602</v>
+        <v>25088411</v>
       </c>
       <c r="G3">
-        <v>27336012.503473099</v>
+        <v>25502392</v>
       </c>
       <c r="H3">
-        <v>28394517.5408227</v>
+        <v>26068458</v>
       </c>
       <c r="J3">
         <v>400</v>
       </c>
       <c r="K3" s="1">
         <f>C3/1000000</f>
-        <v>24.402681047414102</v>
+        <v>23.951053000000002</v>
       </c>
       <c r="L3" s="1">
         <f t="shared" ref="L3:P3" si="0">D3/1000000</f>
-        <v>24.798756532282201</v>
+        <v>24.215292999999999</v>
       </c>
       <c r="M3" s="1">
         <f t="shared" si="0"/>
-        <v>25.484716042164898</v>
+        <v>24.603984000000001</v>
       </c>
       <c r="N3" s="1">
         <f t="shared" si="0"/>
-        <v>26.4171725618266</v>
+        <v>25.088411000000001</v>
       </c>
       <c r="O3" s="1">
         <f t="shared" si="0"/>
-        <v>27.3360125034731</v>
+        <v>25.502392</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" si="0"/>
-        <v>28.394517540822701</v>
+        <v>26.068458</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B4">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="C4">
-        <v>24992406.855219498</v>
+        <v>24557903</v>
       </c>
       <c r="D4">
-        <v>25313404.478782699</v>
+        <v>24442952</v>
       </c>
       <c r="E4">
-        <v>25422822.585446201</v>
+        <v>24603984</v>
       </c>
       <c r="F4">
-        <v>26646070.856982201</v>
+        <v>25162437</v>
       </c>
       <c r="G4">
-        <v>27205192.4683256</v>
+        <v>25528333</v>
       </c>
       <c r="H4">
-        <v>28176576.875670802</v>
+        <v>26153587</v>
       </c>
       <c r="J4">
         <v>350</v>
       </c>
       <c r="K4" s="1">
         <f t="shared" ref="K4:K8" si="1">C4/1000000</f>
-        <v>24.9924068552195</v>
+        <v>24.557903</v>
       </c>
       <c r="L4" s="1">
         <f t="shared" ref="L4:L8" si="2">D4/1000000</f>
-        <v>25.313404478782697</v>
+        <v>24.442951999999998</v>
       </c>
       <c r="M4" s="1">
         <f t="shared" ref="M4:M8" si="3">E4/1000000</f>
-        <v>25.422822585446202</v>
+        <v>24.603984000000001</v>
       </c>
       <c r="N4" s="1">
         <f t="shared" ref="N4:N8" si="4">F4/1000000</f>
-        <v>26.646070856982202</v>
+        <v>25.162437000000001</v>
       </c>
       <c r="O4" s="1">
         <f t="shared" ref="O4:O8" si="5">G4/1000000</f>
-        <v>27.205192468325599</v>
+        <v>25.528333</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" ref="P4:P8" si="6">H4/1000000</f>
-        <v>28.176576875670801</v>
+        <v>26.153587000000002</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B5">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="C5">
-        <v>26366040.9522563</v>
+        <v>25914413</v>
       </c>
       <c r="D5">
-        <v>25286878.749942299</v>
+        <v>24442952</v>
       </c>
       <c r="E5">
-        <v>25514710.708633699</v>
+        <v>24603984</v>
       </c>
       <c r="F5">
-        <v>26439509.945558399</v>
+        <v>25088411</v>
       </c>
       <c r="G5">
-        <v>27445079.625389501</v>
+        <v>25528911</v>
       </c>
       <c r="H5">
-        <v>28530039.0924557</v>
+        <v>26081236</v>
       </c>
       <c r="J5">
         <v>300</v>
       </c>
       <c r="K5" s="1">
         <f t="shared" si="1"/>
-        <v>26.366040952256299</v>
+        <v>25.914413</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" si="2"/>
-        <v>25.2868787499423</v>
+        <v>24.442951999999998</v>
       </c>
       <c r="M5" s="1">
         <f t="shared" si="3"/>
-        <v>25.5147107086337</v>
+        <v>24.603984000000001</v>
       </c>
       <c r="N5" s="1">
         <f t="shared" si="4"/>
-        <v>26.439509945558399</v>
+        <v>25.088411000000001</v>
       </c>
       <c r="O5" s="1">
         <f t="shared" si="5"/>
-        <v>27.4450796253895</v>
+        <v>25.528911000000001</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="6"/>
-        <v>28.530039092455699</v>
+        <v>26.081236000000001</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B6">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="C6">
-        <v>50430937.188346699</v>
+        <v>44402639</v>
       </c>
       <c r="D6">
-        <v>26001919.2867839</v>
+        <v>25297690</v>
       </c>
       <c r="E6">
-        <v>25961579.325002</v>
+        <v>24603984</v>
       </c>
       <c r="F6">
-        <v>26569499.357271198</v>
+        <v>25088411</v>
       </c>
       <c r="G6">
-        <v>27366041.997325402</v>
+        <v>25577866</v>
       </c>
       <c r="H6">
-        <v>28587909.239506699</v>
+        <v>26139337</v>
       </c>
       <c r="J6">
         <v>250</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" si="1"/>
-        <v>50.430937188346697</v>
+        <v>44.402639000000001</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" si="2"/>
-        <v>26.001919286783899</v>
+        <v>25.297689999999999</v>
       </c>
       <c r="M6" s="1">
         <f t="shared" si="3"/>
-        <v>25.961579325001999</v>
+        <v>24.603984000000001</v>
       </c>
       <c r="N6" s="1">
         <f t="shared" si="4"/>
-        <v>26.569499357271198</v>
+        <v>25.088411000000001</v>
       </c>
       <c r="O6" s="1">
         <f t="shared" si="5"/>
-        <v>27.3660419973254</v>
+        <v>25.577866</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>28.5879092395067</v>
+        <v>26.139337000000001</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B7">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="C7">
-        <v>163629456.630317</v>
+        <v>153858066</v>
       </c>
       <c r="D7">
-        <v>28888482.5311989</v>
+        <v>27472909</v>
       </c>
       <c r="E7">
-        <v>25904649.1107319</v>
+        <v>24968603</v>
       </c>
       <c r="F7">
-        <v>26660796.778798498</v>
+        <v>25351430</v>
       </c>
       <c r="G7">
-        <v>27475157.290523499</v>
+        <v>25880531</v>
       </c>
       <c r="H7">
-        <v>28407951.974018</v>
+        <v>26475583</v>
       </c>
       <c r="J7">
         <v>200</v>
       </c>
       <c r="K7" s="1">
         <f t="shared" si="1"/>
-        <v>163.62945663031701</v>
+        <v>153.85806600000001</v>
       </c>
       <c r="L7" s="1">
         <f t="shared" si="2"/>
-        <v>28.8884825311989</v>
+        <v>27.472909000000001</v>
       </c>
       <c r="M7" s="1">
         <f t="shared" si="3"/>
-        <v>25.904649110731899</v>
+        <v>24.968603000000002</v>
       </c>
       <c r="N7" s="1">
         <f t="shared" si="4"/>
-        <v>26.660796778798499</v>
+        <v>25.351430000000001</v>
       </c>
       <c r="O7" s="1">
         <f t="shared" si="5"/>
-        <v>27.475157290523498</v>
+        <v>25.880531000000001</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>28.407951974018001</v>
+        <v>26.475583</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B8">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="C8">
-        <v>234242758.87697801</v>
+        <v>220127658</v>
       </c>
       <c r="D8">
-        <v>112287373.93325301</v>
+        <v>108900795</v>
       </c>
       <c r="E8">
-        <v>27249319.459065702</v>
+        <v>25518056</v>
       </c>
       <c r="F8">
-        <v>27549087.8870322</v>
+        <v>25797463</v>
       </c>
       <c r="G8">
-        <v>28353391.704867899</v>
+        <v>25993955</v>
       </c>
       <c r="H8">
-        <v>28757534.134201601</v>
+        <v>26656400</v>
       </c>
       <c r="J8">
         <v>150</v>
       </c>
       <c r="K8" s="1">
         <f t="shared" si="1"/>
-        <v>234.242758876978</v>
+        <v>220.127658</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" si="2"/>
-        <v>112.28737393325301</v>
+        <v>108.900795</v>
       </c>
       <c r="M8" s="1">
         <f t="shared" si="3"/>
-        <v>27.249319459065703</v>
+        <v>25.518056000000001</v>
       </c>
       <c r="N8" s="1">
         <f t="shared" si="4"/>
-        <v>27.549087887032201</v>
+        <v>25.797463</v>
       </c>
       <c r="O8" s="1">
         <f t="shared" si="5"/>
-        <v>28.353391704867899</v>
+        <v>25.993955</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>28.757534134201602</v>
+        <v>26.656400000000001</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B9">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="C9">
-        <v>317281775</v>
+        <v>304121533</v>
       </c>
       <c r="D9">
-        <v>203957172</v>
+        <v>195316281</v>
       </c>
       <c r="E9">
-        <v>115370388</v>
+        <v>129221557</v>
       </c>
       <c r="F9">
-        <v>32763093</v>
+        <v>29482772</v>
       </c>
       <c r="G9">
-        <v>31422491</v>
+        <v>29351247</v>
       </c>
       <c r="H9">
-        <v>31067380</v>
+        <v>29488705</v>
       </c>
       <c r="J9">
         <v>100</v>
       </c>
       <c r="K9" s="1">
         <f t="shared" ref="K9" si="7">C9/1000000</f>
-        <v>317.28177499999998</v>
+        <v>304.121533</v>
       </c>
       <c r="L9" s="1">
         <f t="shared" ref="L9" si="8">D9/1000000</f>
-        <v>203.95717200000001</v>
+        <v>195.316281</v>
       </c>
       <c r="M9" s="1">
         <f t="shared" ref="M9" si="9">E9/1000000</f>
-        <v>115.37038800000001</v>
+        <v>129.22155699999999</v>
       </c>
       <c r="N9" s="1">
         <f t="shared" ref="N9" si="10">F9/1000000</f>
-        <v>32.763092999999998</v>
+        <v>29.482772000000001</v>
       </c>
       <c r="O9" s="1">
         <f t="shared" ref="O9" si="11">G9/1000000</f>
-        <v>31.422491000000001</v>
+        <v>29.351247000000001</v>
       </c>
       <c r="P9" s="1">
         <f t="shared" ref="P9" si="12">H9/1000000</f>
-        <v>31.06738</v>
+        <v>29.488705</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B10">
+        <v>100</v>
+      </c>
+      <c r="C10">
+        <v>388128348</v>
+      </c>
+      <c r="D10">
+        <v>299491919</v>
+      </c>
+      <c r="E10">
+        <v>213039478</v>
+      </c>
+      <c r="F10">
+        <v>131870174</v>
+      </c>
+      <c r="G10">
+        <v>66654244</v>
+      </c>
+      <c r="H10">
+        <v>42583430</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
+      <c r="H16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+      <c r="H18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="G19">
+        <v>5</v>
+      </c>
+      <c r="H19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <v>5</v>
+      </c>
+      <c r="H20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <v>5</v>
+      </c>
+      <c r="H21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22">
+        <v>5</v>
+      </c>
+      <c r="H22">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
